--- a/TestCases API/API Empty.xlsx
+++ b/TestCases API/API Empty.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>EMPLID</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Comments</t>
-  </si>
-  <si>
-    <t>sdsd</t>
   </si>
 </sst>
 </file>
@@ -152,16 +149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -471,124 +465,97 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
